--- a/biology/Médecine/Hakaroa_Vallée/Hakaroa_Vallée.xlsx
+++ b/biology/Médecine/Hakaroa_Vallée/Hakaroa_Vallée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hakaroa_Vall%C3%A9e</t>
+          <t>Hakaroa_Vallée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hakaroa Vallée, né le 29 août 2004 à Suresnes, est un militant français engagé dans la lutte contre les discriminations faites aux personnes diabétiques de type 1.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hakaroa_Vall%C3%A9e</t>
+          <t>Hakaroa_Vallée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2016, il parcourt avec son père 210 km pour le Téléthon[1].
-En 2018, à 13 ans, il traverse la France en courant et en vélo pour sensibiliser aux discriminations subies par les diabétiques[2],[3],[4].
-L'année suivante, il milite notamment pour modifier les lois interdisant certains emplois aux diabétiques[5],[6],[7],[8]
-En 2021, pour sensibiliser au diabète de type 1, il parcourt le Tour de France en tandem avec Jean-Luc Perez, la veille des professionnels, sur le même parcours[9],[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, il parcourt avec son père 210 km pour le Téléthon.
+En 2018, à 13 ans, il traverse la France en courant et en vélo pour sensibiliser aux discriminations subies par les diabétiques.
+L'année suivante, il milite notamment pour modifier les lois interdisant certains emplois aux diabétiques
+En 2021, pour sensibiliser au diabète de type 1, il parcourt le Tour de France en tandem avec Jean-Luc Perez, la veille des professionnels, sur le même parcours,.
 </t>
         </is>
       </c>
